--- a/database/data_to_add/re_do/Lammens_1987_tbl1_eel.xlsx
+++ b/database/data_to_add/re_do/Lammens_1987_tbl1_eel.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\PDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\database\data_to_add\re_do\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DB423AD-184E-4422-AD64-A7D735B17554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46194F5E-BD3F-4690-B754-AB0CE3638898}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="1755" windowWidth="14400" windowHeight="7372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="43">
   <si>
     <t>site_name</t>
   </si>
@@ -127,12 +133,6 @@
   </si>
   <si>
     <t>forklength</t>
-  </si>
-  <si>
-    <t>Abramis brama</t>
-  </si>
-  <si>
-    <t>monthyl</t>
   </si>
   <si>
     <t>lake</t>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>tbl 1</t>
+  </si>
+  <si>
+    <t>Anguilla anguilla</t>
+  </si>
+  <si>
+    <t>monthly</t>
   </si>
 </sst>
 </file>
@@ -555,20 +561,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="T5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -677,7 +683,7 @@
         <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L2">
         <v>1979</v>
@@ -686,31 +692,31 @@
         <v>1979</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>37</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" t="s">
-        <v>39</v>
       </c>
       <c r="T2">
         <v>1985</v>
       </c>
       <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" t="s">
         <v>40</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" t="s">
-        <v>42</v>
       </c>
       <c r="Z2" s="3">
         <v>5</v>
@@ -722,7 +728,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -742,7 +748,7 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L3">
         <v>1979</v>
@@ -751,31 +757,31 @@
         <v>1979</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>37</v>
-      </c>
-      <c r="R3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" t="s">
-        <v>39</v>
       </c>
       <c r="T3">
         <v>1985</v>
       </c>
       <c r="U3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" t="s">
         <v>40</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" t="s">
-        <v>42</v>
       </c>
       <c r="Y3" s="3">
         <v>6</v>
@@ -790,7 +796,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -810,7 +816,7 @@
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L4">
         <v>1979</v>
@@ -819,31 +825,31 @@
         <v>1979</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>37</v>
-      </c>
-      <c r="R4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" t="s">
-        <v>39</v>
       </c>
       <c r="T4">
         <v>1985</v>
       </c>
       <c r="U4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" t="s">
         <v>40</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" t="s">
-        <v>42</v>
       </c>
       <c r="Y4" s="3">
         <v>13</v>
@@ -858,18 +864,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -878,66 +884,69 @@
         <v>33</v>
       </c>
       <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5">
+        <v>1980</v>
+      </c>
+      <c r="M5">
+        <v>1980</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" t="s">
         <v>34</v>
       </c>
-      <c r="L5">
-        <v>1979</v>
-      </c>
-      <c r="M5">
-        <v>1979</v>
-      </c>
-      <c r="N5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>37</v>
-      </c>
-      <c r="R5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S5" t="s">
-        <v>39</v>
       </c>
       <c r="T5">
         <v>1985</v>
       </c>
       <c r="U5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W5" t="s">
-        <v>42</v>
-      </c>
       <c r="Y5" s="3">
-        <v>28</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="AA5" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AB5" s="3">
-        <v>14</v>
+        <v>71</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -946,7 +955,7 @@
         <v>33</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L6">
         <v>1980</v>
@@ -955,60 +964,57 @@
         <v>1980</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>37</v>
-      </c>
-      <c r="R6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S6" t="s">
-        <v>39</v>
       </c>
       <c r="T6">
         <v>1985</v>
       </c>
       <c r="U6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W6" t="s">
-        <v>42</v>
-      </c>
       <c r="Y6" s="3">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA6" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB6" s="3">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="AC6" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -1017,7 +1023,7 @@
         <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L7">
         <v>1980</v>
@@ -1026,57 +1032,60 @@
         <v>1980</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>37</v>
-      </c>
-      <c r="R7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S7" t="s">
-        <v>39</v>
       </c>
       <c r="T7">
         <v>1985</v>
       </c>
       <c r="U7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W7" t="s">
-        <v>42</v>
-      </c>
       <c r="Y7" s="3">
-        <v>30</v>
+        <v>62</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>5</v>
       </c>
       <c r="AA7" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB7" s="3">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="AC7" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -1085,7 +1094,7 @@
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L8">
         <v>1980</v>
@@ -1094,60 +1103,60 @@
         <v>1980</v>
       </c>
       <c r="N8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>37</v>
-      </c>
-      <c r="R8" t="s">
-        <v>38</v>
-      </c>
-      <c r="S8" t="s">
-        <v>39</v>
       </c>
       <c r="T8">
         <v>1985</v>
       </c>
       <c r="U8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" t="s">
         <v>40</v>
       </c>
-      <c r="V8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8" t="s">
-        <v>42</v>
-      </c>
       <c r="Y8" s="3">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="Z8" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA8" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AB8" s="3">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AC8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>32</v>
@@ -1156,69 +1165,63 @@
         <v>33</v>
       </c>
       <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9">
+        <v>1981</v>
+      </c>
+      <c r="M9">
+        <v>1981</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" t="s">
         <v>34</v>
       </c>
-      <c r="L9">
-        <v>1980</v>
-      </c>
-      <c r="M9">
-        <v>1980</v>
-      </c>
-      <c r="N9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" t="s">
         <v>36</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>37</v>
-      </c>
-      <c r="R9" t="s">
-        <v>38</v>
-      </c>
-      <c r="S9" t="s">
-        <v>39</v>
       </c>
       <c r="T9">
         <v>1985</v>
       </c>
       <c r="U9" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" t="s">
         <v>40</v>
       </c>
-      <c r="V9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>80</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>7</v>
-      </c>
       <c r="AA9" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AB9" s="3">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="AC9" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -1227,7 +1230,7 @@
         <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L10">
         <v>1981</v>
@@ -1236,54 +1239,60 @@
         <v>1981</v>
       </c>
       <c r="N10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>37</v>
-      </c>
-      <c r="R10" t="s">
-        <v>38</v>
-      </c>
-      <c r="S10" t="s">
-        <v>39</v>
       </c>
       <c r="T10">
         <v>1985</v>
       </c>
       <c r="U10" t="s">
+        <v>38</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" t="s">
         <v>40</v>
       </c>
-      <c r="V10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W10" t="s">
-        <v>42</v>
+      <c r="Y10" s="3">
+        <v>50</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>2</v>
       </c>
       <c r="AA10" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AB10" s="3">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AC10" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1292,7 +1301,7 @@
         <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L11">
         <v>1981</v>
@@ -1301,60 +1310,57 @@
         <v>1981</v>
       </c>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" t="s">
         <v>36</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>37</v>
-      </c>
-      <c r="R11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S11" t="s">
-        <v>39</v>
       </c>
       <c r="T11">
         <v>1985</v>
       </c>
       <c r="U11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" t="s">
         <v>40</v>
       </c>
-      <c r="V11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W11" t="s">
-        <v>42</v>
-      </c>
       <c r="Y11" s="3">
-        <v>50</v>
-      </c>
-      <c r="Z11" s="3">
+        <v>86</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>9</v>
+      </c>
+      <c r="AC11" s="3">
         <v>2</v>
       </c>
-      <c r="AA11" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>32</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>6</v>
-      </c>
     </row>
-    <row r="12" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
@@ -1363,7 +1369,7 @@
         <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L12">
         <v>1981</v>
@@ -1372,107 +1378,39 @@
         <v>1981</v>
       </c>
       <c r="N12" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>37</v>
-      </c>
-      <c r="R12" t="s">
-        <v>38</v>
-      </c>
-      <c r="S12" t="s">
-        <v>39</v>
       </c>
       <c r="T12">
         <v>1985</v>
       </c>
       <c r="U12" t="s">
+        <v>38</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" t="s">
         <v>40</v>
       </c>
-      <c r="V12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W12" t="s">
-        <v>42</v>
-      </c>
       <c r="Y12" s="3">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AA12" s="3">
-        <v>3</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>9</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13">
-        <v>35</v>
-      </c>
-      <c r="E13">
-        <v>35</v>
-      </c>
-      <c r="F13">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13">
-        <v>1981</v>
-      </c>
-      <c r="M13">
-        <v>1981</v>
-      </c>
-      <c r="N13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R13" t="s">
-        <v>38</v>
-      </c>
-      <c r="S13" t="s">
-        <v>39</v>
-      </c>
-      <c r="T13">
-        <v>1985</v>
-      </c>
-      <c r="U13" t="s">
-        <v>40</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W13" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>97</v>
-      </c>
-      <c r="AA13" s="3">
         <v>1</v>
       </c>
-      <c r="AB13" s="2" t="s">
+      <c r="AB12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
